--- a/financial_models/opportunities/0398.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0398.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1028A66-4F70-AA4A-9DF7-133760B4C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB93D0-0926-C74F-A256-A60A900BF27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2554,7 +2554,7 @@
                   <c:v>2.4257361073934199E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3294561862408365E-2</c:v>
+                  <c:v>9.3294561862408407E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,8 +3508,8 @@
         <v>213</v>
       </c>
       <c r="F6" s="229">
-        <f>0.061+0.058</f>
-        <v>0.11899999999999999</v>
+        <f>F5*0.8</f>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.14157810691329881</v>
+        <v>0.11326248553063911</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G25" s="174">
         <f>Fin_Analysis!I88</f>
-        <v>0.2277846709235499</v>
+        <v>0.5819036971492364</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4815,14 +4815,14 @@
       </c>
       <c r="C26" s="174">
         <f>Fin_Analysis!I83</f>
-        <v>9.3294561862408365E-2</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.224932249322493E-2</v>
+        <v>6.5907859078590786E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4852,20 +4852,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.304845104798771</v>
+        <v>2.8829737666830444</v>
       </c>
       <c r="D29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9188898599981927</v>
+        <v>4.2396673039456534</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5351118879985541</v>
+        <v>3.3917338431565227</v>
       </c>
       <c r="G29" s="249">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.5351118879985541</v>
+        <v>3.1002114465171129</v>
       </c>
       <c r="H29" s="249"/>
     </row>
@@ -5926,7 +5926,7 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="H14" sqref="H14"/>
@@ -9864,8 +9864,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11380,13 +11380,13 @@
       </c>
       <c r="D74" s="215"/>
       <c r="E74" s="202">
-        <f>H74</f>
-        <v>3638758</v>
+        <f>C74*0.7</f>
+        <v>2547130.5999999996</v>
       </c>
       <c r="F74" s="215"/>
       <c r="H74" s="202">
-        <f>C74</f>
-        <v>3638758</v>
+        <f>C74*0.8</f>
+        <v>2911006.4000000004</v>
       </c>
       <c r="I74" s="215"/>
       <c r="K74" s="24"/>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="E75" s="202">
         <f>E74*D75</f>
-        <v>2488028</v>
+        <v>1741619.5999999996</v>
       </c>
       <c r="F75" s="162">
         <f>E75/E74</f>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="H75" s="202">
         <f>H74*D75</f>
-        <v>2488028</v>
+        <v>1990422.4000000001</v>
       </c>
       <c r="I75" s="162">
         <f>H75/$H$74</f>
@@ -11432,12 +11432,12 @@
       <c r="D76" s="216"/>
       <c r="E76" s="164">
         <f>E74-E75</f>
-        <v>1150730</v>
+        <v>805511</v>
       </c>
       <c r="F76" s="216"/>
       <c r="H76" s="164">
         <f>H74-H75</f>
-        <v>1150730</v>
+        <v>920584.00000000023</v>
       </c>
       <c r="I76" s="216"/>
       <c r="K76" s="24"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="E77" s="202">
         <f>E74*I77</f>
-        <v>796708</v>
+        <v>557695.59999999986</v>
       </c>
       <c r="F77" s="162">
         <f>E77/E74</f>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="H77" s="202">
         <f>H74*D77</f>
-        <v>796708</v>
+        <v>637366.4</v>
       </c>
       <c r="I77" s="162">
         <f>H77/$H$74</f>
@@ -11483,12 +11483,12 @@
       <c r="D78" s="216"/>
       <c r="E78" s="164">
         <f>E76-E77</f>
-        <v>354022</v>
+        <v>247815.40000000014</v>
       </c>
       <c r="F78" s="216"/>
       <c r="H78" s="164">
         <f>H76-H77</f>
-        <v>354022</v>
+        <v>283217.60000000021</v>
       </c>
       <c r="I78" s="216"/>
       <c r="K78" s="24"/>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="E79" s="183">
         <f>E74*F79</f>
-        <v>13663</v>
+        <v>9564.0999999999985</v>
       </c>
       <c r="F79" s="162">
         <f t="shared" ref="F79:F84" si="3">I79</f>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="H79" s="202">
         <f>H74*D79</f>
-        <v>13663</v>
+        <v>10930.400000000001</v>
       </c>
       <c r="I79" s="162">
         <f>H79/$H$74</f>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="E82" s="183">
         <f>E74*F82</f>
-        <v>882.66666666666663</v>
+        <v>617.86666666666656</v>
       </c>
       <c r="F82" s="162">
         <f t="shared" si="3"/>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="H82" s="202">
         <f>H74*D82</f>
-        <v>882.66666666666663</v>
+        <v>706.13333333333333</v>
       </c>
       <c r="I82" s="162">
         <f>H82/$H$74</f>
@@ -11629,19 +11629,19 @@
       </c>
       <c r="E83" s="167">
         <f>E78-E79-E80-E81-E82</f>
-        <v>339476.33333333331</v>
+        <v>237633.43333333347</v>
       </c>
       <c r="F83" s="166">
         <f>E83/E74</f>
-        <v>9.3294561862408365E-2</v>
+        <v>9.3294561862408434E-2</v>
       </c>
       <c r="H83" s="167">
         <f>H78-H79-H80-H81-H82</f>
-        <v>339476.33333333331</v>
+        <v>271581.06666666683</v>
       </c>
       <c r="I83" s="166">
         <f>H83/$H$74</f>
-        <v>9.3294561862408365E-2</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
@@ -11680,19 +11680,19 @@
       </c>
       <c r="E85" s="169">
         <f>E83*(1-F84)</f>
-        <v>254607.25</v>
+        <v>178225.0750000001</v>
       </c>
       <c r="F85" s="168">
         <f>E85/E74</f>
-        <v>6.9970921396806274E-2</v>
+        <v>6.9970921396806315E-2</v>
       </c>
       <c r="H85" s="169">
         <f>H83*(1-I84)</f>
-        <v>254607.25</v>
+        <v>203685.8000000001</v>
       </c>
       <c r="I85" s="168">
         <f>H85/$H$74</f>
-        <v>6.9970921396806274E-2</v>
+        <v>6.9970921396806302E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
@@ -11707,12 +11707,12 @@
       <c r="D86" s="215"/>
       <c r="E86" s="171">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.52242321451007256</v>
+        <v>0.36569625015705098</v>
       </c>
       <c r="F86" s="215"/>
       <c r="H86" s="171">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.52242321451007256</v>
+        <v>0.41793857160805831</v>
       </c>
       <c r="I86" s="215"/>
       <c r="K86" s="24"/>
@@ -11728,12 +11728,12 @@
       <c r="D87" s="215"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14157810691329881</v>
+        <v>9.9104674839309209E-2</v>
       </c>
       <c r="F87" s="215"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14157810691329881</v>
+        <v>0.11326248553063911</v>
       </c>
       <c r="I87" s="215"/>
       <c r="K87" s="24"/>
@@ -11751,20 +11751,20 @@
         <v>0.58190369714923673</v>
       </c>
       <c r="E88" s="201">
-        <f>H88</f>
-        <v>0.11899999999999999</v>
+        <f>C88*0.7</f>
+        <v>0.21279999999999999</v>
       </c>
       <c r="F88" s="168">
         <f>E88/E86</f>
-        <v>0.2277846709235499</v>
+        <v>0.5819036971492364</v>
       </c>
       <c r="H88" s="173">
         <f>Inputs!F6</f>
-        <v>0.11899999999999999</v>
+        <v>0.2432</v>
       </c>
       <c r="I88" s="168">
         <f>H88/H86</f>
-        <v>0.2277846709235499</v>
+        <v>0.5819036971492364</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11779,12 +11779,12 @@
       <c r="D89" s="215"/>
       <c r="E89" s="162">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.224932249322493E-2</v>
+        <v>5.7669376693766934E-2</v>
       </c>
       <c r="F89" s="215"/>
       <c r="H89" s="162">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.224932249322493E-2</v>
+        <v>6.5907859078590786E-2</v>
       </c>
       <c r="I89" s="215"/>
       <c r="K89" s="24"/>
@@ -11842,14 +11842,14 @@
       </c>
       <c r="F93" s="145">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>15.346406162346511</v>
+        <v>8.8873410587716855</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>217</v>
       </c>
       <c r="I93" s="145">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>15.346406162346511</v>
+        <v>10.828203057169615</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11867,14 +11867,14 @@
       </c>
       <c r="F94" s="145">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.1131292343374666</v>
+        <v>4.2675374293428225</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I94" s="145">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.1131292343374666</v>
+        <v>5.0701167118288932</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11917,17 +11917,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>5433366.0373257408</v>
+        <v>3833704.7849316346</v>
       </c>
       <c r="D97" s="219"/>
       <c r="E97" s="123">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>11.148608497321142</v>
+        <v>6.4563315344485339</v>
       </c>
       <c r="F97" s="219"/>
       <c r="H97" s="123">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>11.148608497321142</v>
+        <v>7.8662975120568284</v>
       </c>
       <c r="I97" s="221"/>
       <c r="K97" s="24"/>
@@ -11977,27 +11977,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>5433366.0373257408</v>
+        <v>3833704.7849316346</v>
       </c>
       <c r="D100" s="109">
         <f>F100*(1-C94)</f>
-        <v>9.4763172227229706</v>
+        <v>6.0871173447647786</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>11.148608497321142</v>
+        <v>6.4563315344485339</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.148608497321142</v>
+        <v>7.1613145232526811</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.148608497321142</v>
+        <v>7.8662975120568284</v>
       </c>
       <c r="I100" s="109">
         <f>F100*1.25</f>
-        <v>13.935760621651427</v>
+        <v>8.9516431540658523</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12038,27 +12038,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>748149.40337626229</v>
+        <v>1795065.2195638635</v>
       </c>
       <c r="D103" s="109">
         <f>F103*(1-C94)</f>
-        <v>1.304845104798771</v>
+        <v>2.8829737666830444</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.5351118879985541</v>
+        <v>3.1002114465171129</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5351118879985541</v>
+        <v>3.3917338431565227</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.5351118879985541</v>
+        <v>3.6832562397959321</v>
       </c>
       <c r="I103" s="109">
         <f>F103*1.25</f>
-        <v>1.9188898599981927</v>
+        <v>4.2396673039456534</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12099,27 +12099,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>3090757.7203510012</v>
+        <v>2328729.9073915416</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.3905811637608707</v>
+        <v>4.4850455557239117</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.3418601926598477</v>
+        <v>4.7782714904828234</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.3418601926598477</v>
+        <v>5.2765241832046019</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.3418601926598477</v>
+        <v>5.7747768759263804</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.9273252408248105</v>
+        <v>6.5956552290057529</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0398.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0398.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB93D0-0926-C74F-A256-A60A900BF27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F3C638-0CFF-0B42-8B4F-B6B16C4CD483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.69</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>1798.35184656</v>
+        <v>1798.3518744468613</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="38"/>
@@ -4735,7 +4735,7 @@
         <v>219</v>
       </c>
       <c r="G20" s="175">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.11326248553063911</v>
+        <v>0.11326248377428916</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5907859078590786E-2</v>
+        <v>6.5907858056564253E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4852,20 +4852,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8829737666830444</v>
+        <v>2.5438003708307164</v>
       </c>
       <c r="D29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.2396673039456534</v>
+        <v>4.2396672847178607</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3917338431565227</v>
+        <v>3.3917338277742886</v>
       </c>
       <c r="G29" s="249">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>3.1002114465171129</v>
+        <v>3.1002114334107662</v>
       </c>
       <c r="H29" s="249"/>
     </row>
@@ -11723,17 +11723,17 @@
       </c>
       <c r="C87" s="162">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14157810691329881</v>
+        <v>0.14157810471786136</v>
       </c>
       <c r="D87" s="215"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9104674839309209E-2</v>
+        <v>9.9104673302502999E-2</v>
       </c>
       <c r="F87" s="215"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11326248553063911</v>
+        <v>0.11326248377428916</v>
       </c>
       <c r="I87" s="215"/>
       <c r="K87" s="24"/>
@@ -11774,17 +11774,17 @@
       </c>
       <c r="C89" s="162">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2384823848238475E-2</v>
+        <v>8.2384822570705327E-2</v>
       </c>
       <c r="D89" s="215"/>
       <c r="E89" s="162">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7669376693766934E-2</v>
+        <v>5.7669375799493723E-2</v>
       </c>
       <c r="F89" s="215"/>
       <c r="H89" s="162">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5907859078590786E-2</v>
+        <v>6.5907858056564253E-2</v>
       </c>
       <c r="I89" s="215"/>
       <c r="K89" s="24"/>
@@ -11842,14 +11842,14 @@
       </c>
       <c r="F93" s="145">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>8.8873410587716855</v>
+        <v>8.8873409966387449</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>217</v>
       </c>
       <c r="I93" s="145">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>10.828203057169615</v>
+        <v>10.828202971753498</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="C94" s="185">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="146"/>
       <c r="E94" s="87" t="s">
@@ -11867,14 +11867,14 @@
       </c>
       <c r="F94" s="145">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>4.2675374293428225</v>
+        <v>4.2675374113015287</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I94" s="145">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>5.0701167118288932</v>
+        <v>5.0701166875219403</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11917,17 +11917,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3833704.7849316346</v>
+        <v>3833704.7546902196</v>
       </c>
       <c r="D97" s="219"/>
       <c r="E97" s="123">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>6.4563315344485339</v>
+        <v>6.4563314893112018</v>
       </c>
       <c r="F97" s="219"/>
       <c r="H97" s="123">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>7.8662975120568284</v>
+        <v>7.8662974500051117</v>
       </c>
       <c r="I97" s="221"/>
       <c r="K97" s="24"/>
@@ -11977,27 +11977,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3833704.7849316346</v>
+        <v>3833704.7546902196</v>
       </c>
       <c r="D100" s="109">
         <f>F100*(1-C94)</f>
-        <v>6.0871173447647786</v>
+        <v>5.3709858522436171</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.4563315344485339</v>
+        <v>6.4563314893112018</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.1613145232526811</v>
+        <v>7.1613144696581568</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8662975120568284</v>
+        <v>7.8662974500051117</v>
       </c>
       <c r="I100" s="109">
         <f>F100*1.25</f>
-        <v>8.9516431540658523</v>
+        <v>8.9516430870726964</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12038,27 +12038,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1795065.2195638635</v>
+        <v>1795065.2109580329</v>
       </c>
       <c r="D103" s="109">
         <f>F103*(1-C94)</f>
-        <v>2.8829737666830444</v>
+        <v>2.5438003708307164</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>3.1002114465171129</v>
+        <v>3.1002114334107662</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.3917338431565227</v>
+        <v>3.3917338277742886</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>3.6832562397959321</v>
+        <v>3.6832562221378105</v>
       </c>
       <c r="I103" s="109">
         <f>F103*1.25</f>
-        <v>4.2396673039456534</v>
+        <v>4.2396672847178607</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12099,27 +12099,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2328729.9073915416</v>
+        <v>2328729.8931987737</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.4850455557239117</v>
+        <v>3.9573931115371668</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.7782714904828234</v>
+        <v>4.7782714613609842</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.2765241832046019</v>
+        <v>5.2765241487162227</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.7747768759263804</v>
+        <v>5.7747768360714611</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>6.5956552290057529</v>
+        <v>6.5956551858952785</v>
       </c>
       <c r="K106" s="24"/>
     </row>
